--- a/database/sia/expdata/2007.xlsx
+++ b/database/sia/expdata/2007.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sia/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,14 +74,14 @@
     <t>pi</t>
   </si>
   <si>
-    <t>AUC-12</t>
+    <t>AUC-12-PT-INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +144,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,12 +195,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -209,14 +227,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -243,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,12 +485,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10.6</v>
       </c>
       <c r="B2">
-        <v>0.792</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -486,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2">
         <v>0.23</v>
@@ -495,18 +517,18 @@
         <v>1.49</v>
       </c>
       <c r="K2">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L2">
         <v>0.246</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10.6</v>
       </c>
       <c r="B3">
-        <v>0.791</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -533,18 +555,18 @@
         <v>1.93</v>
       </c>
       <c r="K3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L3">
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10.6</v>
       </c>
       <c r="B4">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -562,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I4">
         <v>0.35</v>
@@ -571,18 +593,18 @@
         <v>4.12</v>
       </c>
       <c r="K4">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L4">
-        <v>0.612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10.6</v>
       </c>
       <c r="B5">
-        <v>0.791</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -600,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="H5">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I5">
         <v>0.23</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K5">
         <v>0.246</v>
       </c>
       <c r="L5">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10.6</v>
       </c>
@@ -653,12 +675,12 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10.6</v>
       </c>
       <c r="B7">
-        <v>0.789</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -691,12 +713,12 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10.6</v>
       </c>
       <c r="B8">
-        <v>0.782</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -726,15 +748,15 @@
         <v>0.245</v>
       </c>
       <c r="L8">
-        <v>0.611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10.6</v>
       </c>
       <c r="B9">
-        <v>0.791</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -764,15 +786,15 @@
         <v>0.38</v>
       </c>
       <c r="L9">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10.6</v>
       </c>
       <c r="B10">
-        <v>0.789</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -805,12 +827,12 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10.6</v>
       </c>
       <c r="B11">
-        <v>0.788</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -843,12 +865,12 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10.6</v>
       </c>
       <c r="B12">
-        <v>0.781</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -866,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="H12">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I12">
         <v>0.34</v>
@@ -878,15 +900,15 @@
         <v>0.379</v>
       </c>
       <c r="L12">
-        <v>0.612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10.6</v>
       </c>
       <c r="B13">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -904,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="H13">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I13">
         <v>0.35</v>
@@ -913,18 +935,18 @@
         <v>2.39</v>
       </c>
       <c r="K13">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="L13">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10.6</v>
       </c>
       <c r="B14">
-        <v>0.782</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -951,18 +973,18 @@
         <v>4.57</v>
       </c>
       <c r="K14">
-        <v>0.611</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="L14">
         <v>0.245</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10.6</v>
       </c>
       <c r="B15">
-        <v>0.781</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -989,18 +1011,18 @@
         <v>5.01</v>
       </c>
       <c r="K15">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="L15">
         <v>0.379</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10.6</v>
       </c>
       <c r="B16">
-        <v>0.777</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1024,13 +1046,13 @@
         <v>0.46</v>
       </c>
       <c r="J16">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="K16">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="L16">
-        <v>0.615</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
   </sheetData>
